--- a/Assets/Item.xlsx
+++ b/Assets/Item.xlsx
@@ -305,39 +305,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Goods_Jewel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_Helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_Clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_Shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Goods_Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_Jewel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_WeaponSummon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_ArmorSummon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_Helmet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_Clothes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_Hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor_Shoes</t>
+    <t>Goods_TicketArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_TicketWeapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +671,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,13 +906,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -926,13 +926,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -946,13 +946,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -966,13 +966,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>

--- a/Assets/Item.xlsx
+++ b/Assets/Item.xlsx
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_Jewel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,15 +325,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_TicketArmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods_TicketWeapon</t>
+    <t>GOLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEWEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_WEAPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICKET_ARMOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,10 +906,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>

--- a/Assets/Item.xlsx
+++ b/Assets/Item.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>검이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,13 +339,46 @@
   <si>
     <t>TICKET_ARMOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전더리</t>
+  </si>
+  <si>
+    <t>얼티밋에픽</t>
+  </si>
+  <si>
+    <t>에픽</t>
+  </si>
+  <si>
+    <t>하이퍼유니크</t>
+  </si>
+  <si>
+    <t>유니크</t>
+  </si>
+  <si>
+    <t>울트라레어</t>
+  </si>
+  <si>
+    <t>슈퍼레어</t>
+  </si>
+  <si>
+    <t>레어</t>
+  </si>
+  <si>
+    <t>언커먼</t>
+  </si>
+  <si>
+    <t>커먼</t>
+  </si>
+  <si>
+    <t>Rarity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +391,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -384,9 +425,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -679,12 +726,12 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="37.75" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -697,14 +744,17 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -717,14 +767,17 @@
       <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -737,14 +790,17 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -757,14 +813,17 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -777,14 +836,17 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -797,14 +859,17 @@
       <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -817,14 +882,17 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -837,14 +905,17 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -857,14 +928,17 @@
       <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -877,14 +951,17 @@
       <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -897,14 +974,17 @@
       <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -917,14 +997,15 @@
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -937,14 +1018,15 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -957,14 +1039,15 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -977,14 +1060,15 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -992,19 +1076,20 @@
         <v>24</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1012,19 +1097,20 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1032,19 +1118,20 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -1052,17 +1139,84 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Item.xlsx
+++ b/Assets/Item.xlsx
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1152,72 +1152,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
